--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohnj\Project\테니스 ELO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohnj\Downloads\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B119B328-CD66-43DD-B04C-A1A5CDBC13A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B841A7D-CA43-484A-A1FD-E2177B84B216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-5070" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELO" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="25">
   <si>
     <t>날짜</t>
   </si>
@@ -38,6 +38,36 @@
     <t>ELO</t>
   </si>
   <si>
+    <t>2025-01-11</t>
+  </si>
+  <si>
+    <t>등록</t>
+  </si>
+  <si>
+    <t>이승준</t>
+  </si>
+  <si>
+    <t>권태현</t>
+  </si>
+  <si>
+    <t>엄세현</t>
+  </si>
+  <si>
+    <t>박준영</t>
+  </si>
+  <si>
+    <t>손준혁</t>
+  </si>
+  <si>
+    <t>천안 문단세</t>
+  </si>
+  <si>
+    <t>2025-01-12</t>
+  </si>
+  <si>
+    <t>천안 문단세 2일차</t>
+  </si>
+  <si>
     <t>복식여부</t>
   </si>
   <si>
@@ -60,15 +90,19 @@
   </si>
   <si>
     <t>델타</t>
+  </si>
+  <si>
+    <t>복식</t>
+  </si>
+  <si>
+    <t>백성진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,12 +161,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -435,15 +468,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E7"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -464,22 +500,310 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>2000</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>2000</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>2000</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>2000</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>200</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>200</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>200</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>200</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>200</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>200</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>1712</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -489,13 +813,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -508,28 +836,623 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>200</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>200</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>200</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>200</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>200</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
